--- a/fuel/燃料成本.xlsx
+++ b/fuel/燃料成本.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/fuel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD8D2C3-801D-7B4F-BF87-0C4462CE116C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD1A7E1-CE57-5D47-9CE2-C8786DB828D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="2" xr2:uid="{76CF22BB-F491-9D4A-9B43-CEA1793124E9}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="4" r:id="rId1"/>
-    <sheet name="燃料电池汽车" sheetId="1" r:id="rId2"/>
-    <sheet name="电动汽车" sheetId="2" r:id="rId3"/>
+    <sheet name="电动汽车" sheetId="2" r:id="rId2"/>
+    <sheet name="燃料电池汽车" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -677,446 +677,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5502680E-3D3C-544D-AE37-D9D3D9349E99}">
-  <dimension ref="A1:P7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:P6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2024</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2025</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2026</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2027</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2028</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2029</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2030</v>
-      </c>
-      <c r="M1" s="1">
-        <v>2031</v>
-      </c>
-      <c r="N1" s="1">
-        <v>2032</v>
-      </c>
-      <c r="O1" s="1">
-        <v>2033</v>
-      </c>
-      <c r="P1" s="1">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5">
-        <v>50</v>
-      </c>
-      <c r="D2" s="5">
-        <f>C2-15/9</f>
-        <v>48.333333333333336</v>
-      </c>
-      <c r="E2" s="5">
-        <f t="shared" ref="E2:K7" si="0">D2-15/9</f>
-        <v>46.666666666666671</v>
-      </c>
-      <c r="F2" s="5">
-        <f t="shared" si="0"/>
-        <v>45.000000000000007</v>
-      </c>
-      <c r="G2" s="5">
-        <f t="shared" si="0"/>
-        <v>43.333333333333343</v>
-      </c>
-      <c r="H2" s="5">
-        <f t="shared" si="0"/>
-        <v>41.666666666666679</v>
-      </c>
-      <c r="I2" s="5">
-        <f t="shared" si="0"/>
-        <v>40.000000000000014</v>
-      </c>
-      <c r="J2" s="5">
-        <f t="shared" si="0"/>
-        <v>38.33333333333335</v>
-      </c>
-      <c r="K2" s="5">
-        <f t="shared" si="0"/>
-        <v>36.666666666666686</v>
-      </c>
-      <c r="L2" s="5">
-        <v>35</v>
-      </c>
-      <c r="M2" s="5">
-        <f>L2</f>
-        <v>35</v>
-      </c>
-      <c r="N2" s="5">
-        <f t="shared" ref="N2:P7" si="1">M2</f>
-        <v>35</v>
-      </c>
-      <c r="O2" s="5">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="P2" s="5">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5">
-        <v>50</v>
-      </c>
-      <c r="D3" s="5">
-        <f>C3-15/9</f>
-        <v>48.333333333333336</v>
-      </c>
-      <c r="E3" s="5">
-        <f t="shared" si="0"/>
-        <v>46.666666666666671</v>
-      </c>
-      <c r="F3" s="5">
-        <f t="shared" si="0"/>
-        <v>45.000000000000007</v>
-      </c>
-      <c r="G3" s="5">
-        <f t="shared" si="0"/>
-        <v>43.333333333333343</v>
-      </c>
-      <c r="H3" s="5">
-        <f t="shared" si="0"/>
-        <v>41.666666666666679</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" si="0"/>
-        <v>40.000000000000014</v>
-      </c>
-      <c r="J3" s="5">
-        <f t="shared" si="0"/>
-        <v>38.33333333333335</v>
-      </c>
-      <c r="K3" s="5">
-        <f t="shared" si="0"/>
-        <v>36.666666666666686</v>
-      </c>
-      <c r="L3" s="5">
-        <v>35</v>
-      </c>
-      <c r="M3" s="5">
-        <f>L3</f>
-        <v>35</v>
-      </c>
-      <c r="N3" s="5">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="O3" s="5">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="P3" s="5">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5">
-        <v>50</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4-15/9</f>
-        <v>48.333333333333336</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" si="0"/>
-        <v>46.666666666666671</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="0"/>
-        <v>45.000000000000007</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" si="0"/>
-        <v>43.333333333333343</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" si="0"/>
-        <v>41.666666666666679</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="0"/>
-        <v>40.000000000000014</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" si="0"/>
-        <v>38.33333333333335</v>
-      </c>
-      <c r="K4" s="5">
-        <f t="shared" si="0"/>
-        <v>36.666666666666686</v>
-      </c>
-      <c r="L4" s="5">
-        <v>35</v>
-      </c>
-      <c r="M4" s="5">
-        <f>L4</f>
-        <v>35</v>
-      </c>
-      <c r="N4" s="5">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="O4" s="5">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="P4" s="5">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5">
-        <v>50</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5-15/9</f>
-        <v>48.333333333333336</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>46.666666666666671</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>45.000000000000007</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="0"/>
-        <v>43.333333333333343</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="0"/>
-        <v>41.666666666666679</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
-        <v>40.000000000000014</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="0"/>
-        <v>38.33333333333335</v>
-      </c>
-      <c r="K5" s="5">
-        <f t="shared" si="0"/>
-        <v>36.666666666666686</v>
-      </c>
-      <c r="L5" s="5">
-        <v>35</v>
-      </c>
-      <c r="M5" s="5">
-        <f>L5</f>
-        <v>35</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="O5" s="5">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="P5" s="5">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6-15/9</f>
-        <v>48.333333333333336</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>46.666666666666671</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="0"/>
-        <v>45.000000000000007</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" si="0"/>
-        <v>43.333333333333343</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="0"/>
-        <v>41.666666666666679</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="0"/>
-        <v>40.000000000000014</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="0"/>
-        <v>38.33333333333335</v>
-      </c>
-      <c r="K6" s="5">
-        <f t="shared" si="0"/>
-        <v>36.666666666666686</v>
-      </c>
-      <c r="L6" s="5">
-        <v>35</v>
-      </c>
-      <c r="M6" s="5">
-        <f>L6</f>
-        <v>35</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="O6" s="5">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="P6" s="5">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5">
-        <v>50</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7-15/9</f>
-        <v>48.333333333333336</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>46.666666666666671</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="0"/>
-        <v>45.000000000000007</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" si="0"/>
-        <v>43.333333333333343</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="0"/>
-        <v>41.666666666666679</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="0"/>
-        <v>40.000000000000014</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="0"/>
-        <v>38.33333333333335</v>
-      </c>
-      <c r="K7" s="5">
-        <f t="shared" si="0"/>
-        <v>36.666666666666686</v>
-      </c>
-      <c r="L7" s="5">
-        <v>35</v>
-      </c>
-      <c r="M7" s="5">
-        <f>L7</f>
-        <v>35</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="O7" s="5">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="P7" s="5">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E19E4D3-60BD-C14B-823B-225324A662FA}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:P3"/>
     </sheetView>
   </sheetViews>
@@ -1178,46 +742,46 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D2">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E2">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F2">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G2">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H2">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J2">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K2">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L2">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M2">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N2">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O2">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P2">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1228,46 +792,496 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.95</v>
+        <f>C2+0.05</f>
+        <v>1.1500000000000001</v>
       </c>
       <c r="D3">
-        <v>0.95</v>
+        <f t="shared" ref="D3:P3" si="0">D2+0.05</f>
+        <v>1.1500000000000001</v>
       </c>
       <c r="E3">
-        <v>0.95</v>
+        <f t="shared" si="0"/>
+        <v>1.1500000000000001</v>
       </c>
       <c r="F3">
-        <v>0.95</v>
+        <f t="shared" si="0"/>
+        <v>1.1500000000000001</v>
       </c>
       <c r="G3">
-        <v>0.95</v>
+        <f t="shared" si="0"/>
+        <v>1.1500000000000001</v>
       </c>
       <c r="H3">
-        <v>0.95</v>
+        <f t="shared" si="0"/>
+        <v>1.1500000000000001</v>
       </c>
       <c r="I3">
-        <v>0.95</v>
+        <f t="shared" si="0"/>
+        <v>1.1500000000000001</v>
       </c>
       <c r="J3">
-        <v>0.95</v>
+        <f t="shared" si="0"/>
+        <v>1.1500000000000001</v>
       </c>
       <c r="K3">
-        <v>0.95</v>
+        <f t="shared" si="0"/>
+        <v>1.1500000000000001</v>
       </c>
       <c r="L3">
-        <v>0.95</v>
+        <f t="shared" si="0"/>
+        <v>1.1500000000000001</v>
       </c>
       <c r="M3">
-        <v>0.95</v>
+        <f t="shared" si="0"/>
+        <v>1.1500000000000001</v>
       </c>
       <c r="N3">
-        <v>0.95</v>
+        <f t="shared" si="0"/>
+        <v>1.1500000000000001</v>
       </c>
       <c r="O3">
-        <v>0.95</v>
+        <f t="shared" si="0"/>
+        <v>1.1500000000000001</v>
       </c>
       <c r="P3">
-        <v>0.95</v>
+        <f t="shared" si="0"/>
+        <v>1.1500000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5502680E-3D3C-544D-AE37-D9D3D9349E99}">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5">
+        <v>50</v>
+      </c>
+      <c r="D2" s="5">
+        <f>C2-20/9</f>
+        <v>47.777777777777779</v>
+      </c>
+      <c r="E2" s="5">
+        <f t="shared" ref="E2:K2" si="0">D2-20/9</f>
+        <v>45.555555555555557</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" si="0"/>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="G2" s="5">
+        <f t="shared" si="0"/>
+        <v>41.111111111111114</v>
+      </c>
+      <c r="H2" s="5">
+        <f t="shared" si="0"/>
+        <v>38.888888888888893</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" si="0"/>
+        <v>36.666666666666671</v>
+      </c>
+      <c r="J2" s="5">
+        <f t="shared" si="0"/>
+        <v>34.44444444444445</v>
+      </c>
+      <c r="K2" s="5">
+        <f t="shared" si="0"/>
+        <v>32.222222222222229</v>
+      </c>
+      <c r="L2" s="5">
+        <v>30</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" ref="M2:M7" si="1">L2</f>
+        <v>30</v>
+      </c>
+      <c r="N2" s="5">
+        <f t="shared" ref="N2:P7" si="2">M2</f>
+        <v>30</v>
+      </c>
+      <c r="O2" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="P2" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5">
+        <v>50</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:K7" si="3">C3-20/9</f>
+        <v>47.777777777777779</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="3"/>
+        <v>45.555555555555557</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="3"/>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="3"/>
+        <v>41.111111111111114</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" si="3"/>
+        <v>38.888888888888893</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="3"/>
+        <v>36.666666666666671</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" si="3"/>
+        <v>34.44444444444445</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" si="3"/>
+        <v>32.222222222222229</v>
+      </c>
+      <c r="L3" s="5">
+        <v>30</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5">
+        <v>50</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="3"/>
+        <v>47.777777777777779</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="3"/>
+        <v>45.555555555555557</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="3"/>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="3"/>
+        <v>41.111111111111114</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="3"/>
+        <v>38.888888888888893</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="3"/>
+        <v>36.666666666666671</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="3"/>
+        <v>34.44444444444445</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="3"/>
+        <v>32.222222222222229</v>
+      </c>
+      <c r="L4" s="5">
+        <v>30</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5">
+        <v>50</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="3"/>
+        <v>47.777777777777779</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="3"/>
+        <v>45.555555555555557</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="3"/>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="3"/>
+        <v>41.111111111111114</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="3"/>
+        <v>38.888888888888893</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="3"/>
+        <v>36.666666666666671</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="3"/>
+        <v>34.44444444444445</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="3"/>
+        <v>32.222222222222229</v>
+      </c>
+      <c r="L5" s="5">
+        <v>30</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="3"/>
+        <v>47.777777777777779</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="3"/>
+        <v>45.555555555555557</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="3"/>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="3"/>
+        <v>41.111111111111114</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="3"/>
+        <v>38.888888888888893</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="3"/>
+        <v>36.666666666666671</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="3"/>
+        <v>34.44444444444445</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="3"/>
+        <v>32.222222222222229</v>
+      </c>
+      <c r="L6" s="5">
+        <v>30</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="3"/>
+        <v>47.777777777777779</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="3"/>
+        <v>45.555555555555557</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="3"/>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="3"/>
+        <v>41.111111111111114</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="3"/>
+        <v>38.888888888888893</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="3"/>
+        <v>36.666666666666671</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="3"/>
+        <v>34.44444444444445</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="3"/>
+        <v>32.222222222222229</v>
+      </c>
+      <c r="L7" s="5">
+        <v>30</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
